--- a/specific_variables/snow-height.xlsx
+++ b/specific_variables/snow-height.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/temp_out/specific_variables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/specific_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E633E4-A7E8-8247-8CFA-8E0842924454}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E2B547-02EE-C840-B587-93163E316450}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37380" yWindow="-720" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Variable</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>m</t>
-  </si>
-  <si>
-    <t>standard_name</t>
   </si>
   <si>
     <t>long_name</t>
@@ -103,6 +100,9 @@
     <t>bad_data
 good_data 
 suspect_data_possible_obstruction</t>
+  </si>
+  <si>
+    <t>&lt;derived&gt;</t>
   </si>
 </sst>
 </file>
@@ -188,9 +188,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -228,6 +225,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,7 +549,7 @@
   <dimension ref="A1:C979"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -573,7 +573,7 @@
     </row>
     <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4"/>
     </row>
@@ -582,7 +582,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -590,7 +590,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -605,7 +605,7 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -613,130 +613,125 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>21</v>
+      <c r="C7" s="8">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="8">
-        <v>-1E+20</v>
+      <c r="C8" s="23" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="9">
-        <v>0.5</v>
+      <c r="C9" s="23" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="9">
-        <v>10</v>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>14</v>
+    <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="20" t="s">
+        <v>21</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>17</v>
+      <c r="C16" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
-      <c r="C17" s="12">
-        <v>1</v>
+      <c r="C17" s="21" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="13" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
-      <c r="B19" s="5" t="s">
-        <v>8</v>
+      <c r="B19" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>24</v>
-      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
-      <c r="B21" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>26</v>
-      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="5"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="5"/>
       <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="10"/>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
@@ -746,42 +741,42 @@
     <row r="25" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="10"/>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="12"/>
+      <c r="C26" s="16"/>
     </row>
     <row r="27" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="10"/>
+      <c r="C27" s="13"/>
     </row>
     <row r="28" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
     </row>
     <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="14"/>
+      <c r="C29" s="9"/>
     </row>
     <row r="30" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="5"/>
+      <c r="A31" s="6"/>
       <c r="B31" s="5"/>
       <c r="C31" s="10"/>
     </row>
     <row r="32" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="6"/>
+      <c r="A32" s="5"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="10"/>
+      <c r="C32" s="9"/>
     </row>
     <row r="33" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
@@ -791,7 +786,7 @@
     <row r="34" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="10"/>
+      <c r="C34" s="9"/>
     </row>
     <row r="35" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5"/>
@@ -801,400 +796,397 @@
     <row r="36" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="10"/>
+      <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
     </row>
     <row r="38" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="14"/>
+      <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="5"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="16"/>
+      <c r="C39" s="4"/>
     </row>
     <row r="40" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C40" s="4"/>
+      <c r="C40" s="7"/>
     </row>
     <row r="41" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="4"/>
     </row>
     <row r="42" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C42" s="7"/>
+      <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C43" s="4"/>
+      <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C44" s="2"/>
+      <c r="C44" s="4"/>
     </row>
     <row r="45" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C45" s="2"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="17"/>
     </row>
     <row r="46" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C46" s="4"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="18"/>
     </row>
     <row r="47" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="5"/>
-      <c r="C47" s="18"/>
+      <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="15"/>
-      <c r="C48" s="19"/>
+      <c r="C48" s="4"/>
     </row>
     <row r="49" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C49" s="2"/>
+      <c r="C49" s="7"/>
     </row>
     <row r="50" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="4"/>
     </row>
     <row r="51" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C51" s="7"/>
+      <c r="C51" s="2"/>
     </row>
     <row r="52" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C52" s="4"/>
+      <c r="C52" s="2"/>
     </row>
     <row r="53" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C53" s="2"/>
+      <c r="C53" s="4"/>
     </row>
     <row r="54" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C54" s="2"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="17"/>
     </row>
     <row r="55" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C55" s="4"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="18"/>
     </row>
     <row r="56" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="5"/>
-      <c r="C56" s="18"/>
+      <c r="C56" s="4"/>
     </row>
     <row r="57" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="15"/>
-      <c r="C57" s="19"/>
+      <c r="C57" s="4"/>
     </row>
     <row r="58" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C58" s="4"/>
+      <c r="C58" s="7"/>
     </row>
     <row r="59" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="4"/>
     </row>
     <row r="60" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C60" s="7"/>
+      <c r="C60" s="2"/>
     </row>
     <row r="61" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C61" s="4"/>
+      <c r="C61" s="2"/>
     </row>
     <row r="62" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C62" s="2"/>
+      <c r="C62" s="4"/>
     </row>
     <row r="63" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C63" s="2"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="17"/>
     </row>
     <row r="64" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C64" s="4"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="18"/>
     </row>
     <row r="65" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="5"/>
-      <c r="C65" s="18"/>
+      <c r="C65" s="4"/>
     </row>
     <row r="66" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="15"/>
-      <c r="C66" s="19"/>
+      <c r="C66" s="4"/>
     </row>
     <row r="67" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C67" s="4"/>
+      <c r="C67" s="7"/>
     </row>
     <row r="68" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C68" s="4"/>
     </row>
     <row r="69" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C69" s="7"/>
+      <c r="C69" s="2"/>
     </row>
     <row r="70" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C70" s="4"/>
+      <c r="C70" s="2"/>
     </row>
     <row r="71" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C71" s="2"/>
+      <c r="C71" s="4"/>
     </row>
     <row r="72" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C72" s="2"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="17"/>
     </row>
     <row r="73" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C73" s="4"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="18"/>
     </row>
     <row r="74" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="5"/>
-      <c r="C74" s="18"/>
+      <c r="C74" s="4"/>
     </row>
     <row r="75" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="15"/>
-      <c r="C75" s="19"/>
+      <c r="C75" s="4"/>
     </row>
     <row r="76" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C76" s="4"/>
+      <c r="C76" s="7"/>
     </row>
     <row r="77" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C77" s="4"/>
     </row>
     <row r="78" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C78" s="7"/>
+      <c r="C78" s="2"/>
     </row>
     <row r="79" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C79" s="4"/>
+      <c r="C79" s="2"/>
     </row>
     <row r="80" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C80" s="2"/>
+      <c r="C80" s="4"/>
     </row>
     <row r="81" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C81" s="2"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="17"/>
     </row>
     <row r="82" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C82" s="4"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="18"/>
     </row>
     <row r="83" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="5"/>
-      <c r="C83" s="18"/>
+      <c r="C83" s="4"/>
     </row>
     <row r="84" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="15"/>
-      <c r="C84" s="19"/>
+      <c r="C84" s="4"/>
     </row>
     <row r="85" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C85" s="4"/>
+      <c r="C85" s="7"/>
     </row>
     <row r="86" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C86" s="4"/>
     </row>
     <row r="87" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C87" s="7"/>
+      <c r="C87" s="2"/>
     </row>
     <row r="88" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C88" s="4"/>
+      <c r="C88" s="2"/>
     </row>
     <row r="89" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C89" s="2"/>
+      <c r="C89" s="4"/>
     </row>
     <row r="90" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C90" s="2"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="17"/>
     </row>
     <row r="91" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C91" s="4"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="18"/>
     </row>
     <row r="92" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="5"/>
-      <c r="C92" s="18"/>
+      <c r="C92" s="4"/>
     </row>
     <row r="93" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="15"/>
-      <c r="C93" s="19"/>
+      <c r="C93" s="4"/>
     </row>
     <row r="94" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C94" s="4"/>
+      <c r="C94" s="7"/>
     </row>
     <row r="95" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C95" s="4"/>
     </row>
     <row r="96" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C96" s="7"/>
+      <c r="C96" s="2"/>
     </row>
     <row r="97" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C97" s="4"/>
+      <c r="C97" s="2"/>
     </row>
     <row r="98" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C98" s="2"/>
+      <c r="C98" s="4"/>
     </row>
     <row r="99" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C99" s="2"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="17"/>
     </row>
     <row r="100" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C100" s="4"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="18"/>
     </row>
     <row r="101" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="5"/>
-      <c r="C101" s="18"/>
+      <c r="C101" s="4"/>
     </row>
     <row r="102" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="15"/>
-      <c r="C102" s="19"/>
+      <c r="C102" s="4"/>
     </row>
     <row r="103" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B103" s="19"/>
       <c r="C103" s="4"/>
     </row>
     <row r="104" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C104" s="4"/>
     </row>
     <row r="105" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="20"/>
-      <c r="C105" s="4"/>
+      <c r="C105" s="2"/>
     </row>
     <row r="106" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C106" s="4"/>
+      <c r="C106" s="2"/>
     </row>
     <row r="107" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C107" s="2"/>
+      <c r="C107" s="4"/>
     </row>
     <row r="108" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C108" s="2"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="17"/>
     </row>
     <row r="109" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C109" s="4"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="18"/>
     </row>
     <row r="110" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="5"/>
-      <c r="C110" s="18"/>
+      <c r="C110" s="4"/>
     </row>
     <row r="111" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="15"/>
-      <c r="C111" s="19"/>
+      <c r="C111" s="4"/>
     </row>
     <row r="112" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C112" s="4"/>
+      <c r="C112" s="7"/>
     </row>
     <row r="113" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C113" s="4"/>
     </row>
     <row r="114" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C114" s="7"/>
+      <c r="C114" s="2"/>
     </row>
     <row r="115" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C115" s="4"/>
+      <c r="C115" s="2"/>
     </row>
     <row r="116" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C116" s="2"/>
+      <c r="C116" s="4"/>
     </row>
     <row r="117" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C117" s="2"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="17"/>
     </row>
     <row r="118" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C118" s="4"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="18"/>
     </row>
     <row r="119" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B119" s="5"/>
-      <c r="C119" s="18"/>
+      <c r="C119" s="4"/>
     </row>
     <row r="120" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B120" s="15"/>
-      <c r="C120" s="19"/>
+      <c r="C120" s="4"/>
     </row>
     <row r="121" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C121" s="4"/>
+      <c r="C121" s="7"/>
     </row>
     <row r="122" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C122" s="4"/>
     </row>
     <row r="123" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C123" s="7"/>
+      <c r="C123" s="2"/>
     </row>
     <row r="124" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C124" s="4"/>
+      <c r="C124" s="2"/>
     </row>
     <row r="125" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C125" s="2"/>
+      <c r="C125" s="4"/>
     </row>
     <row r="126" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C126" s="2"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="17"/>
     </row>
     <row r="127" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C127" s="4"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="18"/>
     </row>
     <row r="128" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B128" s="5"/>
-      <c r="C128" s="18"/>
+      <c r="C128" s="4"/>
     </row>
     <row r="129" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B129" s="15"/>
-      <c r="C129" s="19"/>
+      <c r="C129" s="4"/>
     </row>
     <row r="130" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C130" s="4"/>
+      <c r="C130" s="7"/>
     </row>
     <row r="131" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C131" s="4"/>
     </row>
     <row r="132" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C132" s="7"/>
+      <c r="C132" s="2"/>
     </row>
     <row r="133" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C133" s="4"/>
+      <c r="C133" s="2"/>
     </row>
     <row r="134" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C134" s="2"/>
+      <c r="C134" s="4"/>
     </row>
     <row r="135" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C135" s="2"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="17"/>
     </row>
     <row r="136" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C136" s="4"/>
+      <c r="B136" s="14"/>
+      <c r="C136" s="18"/>
     </row>
     <row r="137" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B137" s="5"/>
-      <c r="C137" s="18"/>
+      <c r="C137" s="4"/>
     </row>
     <row r="138" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B138" s="15"/>
-      <c r="C138" s="19"/>
+      <c r="C138" s="4"/>
     </row>
     <row r="139" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C139" s="4"/>
+      <c r="C139" s="7"/>
     </row>
     <row r="140" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C140" s="4"/>
     </row>
     <row r="141" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C141" s="7"/>
+      <c r="C141" s="2"/>
     </row>
     <row r="142" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C142" s="4"/>
+      <c r="C142" s="2"/>
     </row>
     <row r="143" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C143" s="2"/>
+      <c r="C143" s="4"/>
     </row>
     <row r="144" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C144" s="2"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="17"/>
     </row>
     <row r="145" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C145" s="4"/>
+      <c r="B145" s="14"/>
+      <c r="C145" s="18"/>
     </row>
     <row r="146" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B146" s="5"/>
-      <c r="C146" s="18"/>
+      <c r="C146" s="4"/>
     </row>
     <row r="147" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B147" s="15"/>
-      <c r="C147" s="19"/>
+      <c r="C147" s="4"/>
     </row>
     <row r="148" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C148" s="4"/>
+      <c r="C148" s="7"/>
     </row>
     <row r="149" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C149" s="4"/>
     </row>
     <row r="150" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C150" s="7"/>
+      <c r="C150" s="2"/>
     </row>
     <row r="151" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C151" s="4"/>
+      <c r="C151" s="2"/>
     </row>
     <row r="152" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C152" s="2"/>
+      <c r="C152" s="4"/>
     </row>
     <row r="153" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C153" s="2"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="17"/>
     </row>
     <row r="154" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C154" s="4"/>
+      <c r="B154" s="14"/>
+      <c r="C154" s="18"/>
     </row>
     <row r="155" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B155" s="5"/>
-      <c r="C155" s="18"/>
+      <c r="C155" s="4"/>
     </row>
     <row r="156" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B156" s="15"/>
-      <c r="C156" s="19"/>
+      <c r="C156" s="4"/>
     </row>
     <row r="157" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C157" s="4"/>
@@ -1203,114 +1195,114 @@
       <c r="C158" s="4"/>
     </row>
     <row r="159" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C159" s="4"/>
+      <c r="C159" s="2"/>
     </row>
     <row r="160" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C160" s="4"/>
+      <c r="C160" s="2"/>
     </row>
     <row r="161" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C161" s="2"/>
+      <c r="C161" s="4"/>
     </row>
     <row r="162" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C162" s="2"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="17"/>
     </row>
     <row r="163" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C163" s="4"/>
+      <c r="B163" s="14"/>
+      <c r="C163" s="18"/>
     </row>
     <row r="164" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B164" s="5"/>
-      <c r="C164" s="18"/>
+      <c r="C164" s="4"/>
     </row>
     <row r="165" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B165" s="15"/>
-      <c r="C165" s="19"/>
+      <c r="C165" s="4"/>
     </row>
     <row r="166" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C166" s="4"/>
+      <c r="C166" s="7"/>
     </row>
     <row r="167" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C167" s="4"/>
     </row>
     <row r="168" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C168" s="7"/>
+      <c r="C168" s="2"/>
     </row>
     <row r="169" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C169" s="4"/>
+      <c r="C169" s="2"/>
     </row>
     <row r="170" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C170" s="2"/>
+      <c r="C170" s="4"/>
     </row>
     <row r="171" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C171" s="2"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="17"/>
     </row>
     <row r="172" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C172" s="4"/>
+      <c r="B172" s="14"/>
+      <c r="C172" s="18"/>
     </row>
     <row r="173" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B173" s="5"/>
-      <c r="C173" s="18"/>
+      <c r="C173" s="4"/>
     </row>
     <row r="174" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B174" s="15"/>
-      <c r="C174" s="19"/>
+      <c r="C174" s="4"/>
     </row>
     <row r="175" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C175" s="4"/>
+      <c r="C175" s="7"/>
     </row>
     <row r="176" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C176" s="4"/>
     </row>
     <row r="177" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C177" s="7"/>
+      <c r="C177" s="2"/>
     </row>
     <row r="178" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C178" s="4"/>
+      <c r="C178" s="2"/>
     </row>
     <row r="179" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C179" s="2"/>
+      <c r="C179" s="4"/>
     </row>
     <row r="180" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C180" s="2"/>
+      <c r="B180" s="5"/>
+      <c r="C180" s="17"/>
     </row>
     <row r="181" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C181" s="4"/>
+      <c r="B181" s="14"/>
+      <c r="C181" s="18"/>
     </row>
     <row r="182" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B182" s="5"/>
-      <c r="C182" s="18"/>
+      <c r="C182" s="4"/>
     </row>
     <row r="183" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B183" s="15"/>
-      <c r="C183" s="19"/>
+      <c r="C183" s="4"/>
     </row>
     <row r="184" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C184" s="4"/>
+      <c r="C184" s="7"/>
     </row>
     <row r="185" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C185" s="4"/>
     </row>
     <row r="186" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C186" s="7"/>
+      <c r="C186" s="2"/>
     </row>
     <row r="187" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C187" s="4"/>
+      <c r="C187" s="2"/>
     </row>
     <row r="188" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C188" s="2"/>
+      <c r="C188" s="4"/>
     </row>
     <row r="189" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C189" s="2"/>
+      <c r="B189" s="5"/>
+      <c r="C189" s="17"/>
     </row>
     <row r="190" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C190" s="4"/>
+      <c r="B190" s="14"/>
+      <c r="C190" s="18"/>
     </row>
     <row r="191" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B191" s="5"/>
-      <c r="C191" s="18"/>
+      <c r="C191" s="4"/>
     </row>
     <row r="192" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B192" s="15"/>
-      <c r="C192" s="19"/>
+      <c r="C192" s="4"/>
     </row>
     <row r="193" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C193" s="4"/>
@@ -3631,12 +3623,8 @@
     <row r="965" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C965" s="4"/>
     </row>
-    <row r="966" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C966" s="4"/>
-    </row>
-    <row r="967" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C967" s="4"/>
-    </row>
+    <row r="966" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="967" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="968" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="969" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="970" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/specific_variables/snow-height.xlsx
+++ b/specific_variables/snow-height.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/specific_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E2B547-02EE-C840-B587-93163E316450}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D62678-77BE-7B44-8A77-7DD053C4D69D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37380" yWindow="-720" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Variable</t>
   </si>
@@ -47,12 +47,6 @@
   </si>
   <si>
     <t>_FillValue</t>
-  </si>
-  <si>
-    <t>valid_min</t>
-  </si>
-  <si>
-    <t>valid_max</t>
   </si>
   <si>
     <t>coordinates</t>
@@ -100,9 +94,6 @@
     <t>bad_data
 good_data 
 suspect_data_possible_obstruction</t>
-  </si>
-  <si>
-    <t>&lt;derived&gt;</t>
   </si>
 </sst>
 </file>
@@ -166,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -225,9 +216,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,7 +537,7 @@
   <dimension ref="A1:C979"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C9" sqref="A8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -573,7 +561,7 @@
     </row>
     <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="4"/>
     </row>
@@ -582,7 +570,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -590,7 +578,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -606,7 +594,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -619,104 +607,98 @@
     </row>
     <row r="8" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
+      <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>26</v>
+    </row>
+    <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="20" t="s">
+        <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>15</v>
+      <c r="C14" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>16</v>
+      <c r="C15" s="21" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
-      <c r="C16" s="11">
-        <v>1</v>
+      <c r="C16" s="13" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
+      <c r="B17" s="14" t="s">
+        <v>16</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>22</v>
+      <c r="C17" s="22" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
-      <c r="B18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>23</v>
-      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
-      <c r="B19" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>25</v>
-      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="5"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="9"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
@@ -724,9 +706,9 @@
       <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="6"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="10"/>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
@@ -736,32 +718,32 @@
     <row r="24" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="11"/>
+      <c r="C24" s="16"/>
     </row>
     <row r="25" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="9"/>
+      <c r="C25" s="13"/>
     </row>
     <row r="26" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="16"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
     </row>
     <row r="27" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="13"/>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="5"/>
+      <c r="A29" s="6"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="9"/>
+      <c r="C29" s="10"/>
     </row>
     <row r="30" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
@@ -769,9 +751,9 @@
       <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="6"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="10"/>
+      <c r="C31" s="11"/>
     </row>
     <row r="32" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
@@ -781,406 +763,402 @@
     <row r="33" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="11"/>
+      <c r="C33" s="12"/>
     </row>
     <row r="34" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="9"/>
+      <c r="C34" s="13"/>
     </row>
     <row r="35" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="12"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
     </row>
     <row r="36" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="13"/>
+      <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="5"/>
-      <c r="C38" s="4"/>
+      <c r="C38" s="7"/>
     </row>
     <row r="39" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" s="4"/>
     </row>
     <row r="40" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C40" s="7"/>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C41" s="4"/>
+      <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C42" s="2"/>
+      <c r="C42" s="4"/>
     </row>
     <row r="43" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C43" s="2"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="17"/>
     </row>
     <row r="44" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C44" s="4"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="18"/>
     </row>
     <row r="45" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="5"/>
-      <c r="C45" s="17"/>
+      <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="14"/>
-      <c r="C46" s="18"/>
+      <c r="C46" s="4"/>
     </row>
     <row r="47" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C47" s="2"/>
+      <c r="C47" s="7"/>
     </row>
     <row r="48" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C48" s="4"/>
     </row>
     <row r="49" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C49" s="7"/>
+      <c r="C49" s="2"/>
     </row>
     <row r="50" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C50" s="4"/>
+      <c r="C50" s="2"/>
     </row>
     <row r="51" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C51" s="2"/>
+      <c r="C51" s="4"/>
     </row>
     <row r="52" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C52" s="2"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="17"/>
     </row>
     <row r="53" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C53" s="4"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="18"/>
     </row>
     <row r="54" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="5"/>
-      <c r="C54" s="17"/>
+      <c r="C54" s="4"/>
     </row>
     <row r="55" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="14"/>
-      <c r="C55" s="18"/>
+      <c r="C55" s="4"/>
     </row>
     <row r="56" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C56" s="4"/>
+      <c r="C56" s="7"/>
     </row>
     <row r="57" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C57" s="4"/>
     </row>
     <row r="58" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C58" s="7"/>
+      <c r="C58" s="2"/>
     </row>
     <row r="59" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C59" s="4"/>
+      <c r="C59" s="2"/>
     </row>
     <row r="60" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C60" s="2"/>
+      <c r="C60" s="4"/>
     </row>
     <row r="61" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C61" s="2"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="17"/>
     </row>
     <row r="62" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C62" s="4"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="18"/>
     </row>
     <row r="63" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="5"/>
-      <c r="C63" s="17"/>
+      <c r="C63" s="4"/>
     </row>
     <row r="64" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="14"/>
-      <c r="C64" s="18"/>
+      <c r="C64" s="4"/>
     </row>
     <row r="65" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C65" s="4"/>
+      <c r="C65" s="7"/>
     </row>
     <row r="66" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C66" s="4"/>
     </row>
     <row r="67" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C67" s="7"/>
+      <c r="C67" s="2"/>
     </row>
     <row r="68" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C68" s="4"/>
+      <c r="C68" s="2"/>
     </row>
     <row r="69" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C69" s="2"/>
+      <c r="C69" s="4"/>
     </row>
     <row r="70" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C70" s="2"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="17"/>
     </row>
     <row r="71" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C71" s="4"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="18"/>
     </row>
     <row r="72" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="5"/>
-      <c r="C72" s="17"/>
+      <c r="C72" s="4"/>
     </row>
     <row r="73" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="14"/>
-      <c r="C73" s="18"/>
+      <c r="C73" s="4"/>
     </row>
     <row r="74" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C74" s="4"/>
+      <c r="C74" s="7"/>
     </row>
     <row r="75" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C75" s="4"/>
     </row>
     <row r="76" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C76" s="7"/>
+      <c r="C76" s="2"/>
     </row>
     <row r="77" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C77" s="4"/>
+      <c r="C77" s="2"/>
     </row>
     <row r="78" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C78" s="2"/>
+      <c r="C78" s="4"/>
     </row>
     <row r="79" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C79" s="2"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="17"/>
     </row>
     <row r="80" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C80" s="4"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="18"/>
     </row>
     <row r="81" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="5"/>
-      <c r="C81" s="17"/>
+      <c r="C81" s="4"/>
     </row>
     <row r="82" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="14"/>
-      <c r="C82" s="18"/>
+      <c r="C82" s="4"/>
     </row>
     <row r="83" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C83" s="4"/>
+      <c r="C83" s="7"/>
     </row>
     <row r="84" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C84" s="4"/>
     </row>
     <row r="85" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C85" s="7"/>
+      <c r="C85" s="2"/>
     </row>
     <row r="86" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C86" s="4"/>
+      <c r="C86" s="2"/>
     </row>
     <row r="87" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C87" s="2"/>
+      <c r="C87" s="4"/>
     </row>
     <row r="88" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C88" s="2"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="17"/>
     </row>
     <row r="89" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C89" s="4"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="18"/>
     </row>
     <row r="90" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="5"/>
-      <c r="C90" s="17"/>
+      <c r="C90" s="4"/>
     </row>
     <row r="91" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="14"/>
-      <c r="C91" s="18"/>
+      <c r="C91" s="4"/>
     </row>
     <row r="92" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C92" s="4"/>
+      <c r="C92" s="7"/>
     </row>
     <row r="93" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C93" s="4"/>
     </row>
     <row r="94" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C94" s="7"/>
+      <c r="C94" s="2"/>
     </row>
     <row r="95" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C95" s="4"/>
+      <c r="C95" s="2"/>
     </row>
     <row r="96" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C96" s="2"/>
+      <c r="C96" s="4"/>
     </row>
     <row r="97" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C97" s="2"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="17"/>
     </row>
     <row r="98" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C98" s="4"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="18"/>
     </row>
     <row r="99" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="5"/>
-      <c r="C99" s="17"/>
+      <c r="C99" s="4"/>
     </row>
     <row r="100" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="14"/>
-      <c r="C100" s="18"/>
+      <c r="C100" s="4"/>
     </row>
     <row r="101" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B101" s="19"/>
       <c r="C101" s="4"/>
     </row>
     <row r="102" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C102" s="4"/>
     </row>
     <row r="103" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="19"/>
-      <c r="C103" s="4"/>
+      <c r="C103" s="2"/>
     </row>
     <row r="104" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C104" s="4"/>
+      <c r="C104" s="2"/>
     </row>
     <row r="105" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C105" s="2"/>
+      <c r="C105" s="4"/>
     </row>
     <row r="106" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C106" s="2"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="17"/>
     </row>
     <row r="107" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C107" s="4"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="18"/>
     </row>
     <row r="108" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B108" s="5"/>
-      <c r="C108" s="17"/>
+      <c r="C108" s="4"/>
     </row>
     <row r="109" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B109" s="14"/>
-      <c r="C109" s="18"/>
+      <c r="C109" s="4"/>
     </row>
     <row r="110" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C110" s="4"/>
+      <c r="C110" s="7"/>
     </row>
     <row r="111" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C111" s="4"/>
     </row>
     <row r="112" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C112" s="7"/>
+      <c r="C112" s="2"/>
     </row>
     <row r="113" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C113" s="4"/>
+      <c r="C113" s="2"/>
     </row>
     <row r="114" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C114" s="2"/>
+      <c r="C114" s="4"/>
     </row>
     <row r="115" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C115" s="2"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="17"/>
     </row>
     <row r="116" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C116" s="4"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="18"/>
     </row>
     <row r="117" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B117" s="5"/>
-      <c r="C117" s="17"/>
+      <c r="C117" s="4"/>
     </row>
     <row r="118" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B118" s="14"/>
-      <c r="C118" s="18"/>
+      <c r="C118" s="4"/>
     </row>
     <row r="119" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C119" s="4"/>
+      <c r="C119" s="7"/>
     </row>
     <row r="120" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C120" s="4"/>
     </row>
     <row r="121" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C121" s="7"/>
+      <c r="C121" s="2"/>
     </row>
     <row r="122" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C122" s="4"/>
+      <c r="C122" s="2"/>
     </row>
     <row r="123" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C123" s="2"/>
+      <c r="C123" s="4"/>
     </row>
     <row r="124" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C124" s="2"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="17"/>
     </row>
     <row r="125" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C125" s="4"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="18"/>
     </row>
     <row r="126" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B126" s="5"/>
-      <c r="C126" s="17"/>
+      <c r="C126" s="4"/>
     </row>
     <row r="127" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B127" s="14"/>
-      <c r="C127" s="18"/>
+      <c r="C127" s="4"/>
     </row>
     <row r="128" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C128" s="4"/>
+      <c r="C128" s="7"/>
     </row>
     <row r="129" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C129" s="4"/>
     </row>
     <row r="130" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C130" s="7"/>
+      <c r="C130" s="2"/>
     </row>
     <row r="131" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C131" s="4"/>
+      <c r="C131" s="2"/>
     </row>
     <row r="132" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C132" s="2"/>
+      <c r="C132" s="4"/>
     </row>
     <row r="133" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C133" s="2"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="17"/>
     </row>
     <row r="134" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C134" s="4"/>
+      <c r="B134" s="14"/>
+      <c r="C134" s="18"/>
     </row>
     <row r="135" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B135" s="5"/>
-      <c r="C135" s="17"/>
+      <c r="C135" s="4"/>
     </row>
     <row r="136" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B136" s="14"/>
-      <c r="C136" s="18"/>
+      <c r="C136" s="4"/>
     </row>
     <row r="137" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C137" s="4"/>
+      <c r="C137" s="7"/>
     </row>
     <row r="138" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C138" s="4"/>
     </row>
     <row r="139" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C139" s="7"/>
+      <c r="C139" s="2"/>
     </row>
     <row r="140" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C140" s="4"/>
+      <c r="C140" s="2"/>
     </row>
     <row r="141" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C141" s="2"/>
+      <c r="C141" s="4"/>
     </row>
     <row r="142" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C142" s="2"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="17"/>
     </row>
     <row r="143" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C143" s="4"/>
+      <c r="B143" s="14"/>
+      <c r="C143" s="18"/>
     </row>
     <row r="144" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B144" s="5"/>
-      <c r="C144" s="17"/>
+      <c r="C144" s="4"/>
     </row>
     <row r="145" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B145" s="14"/>
-      <c r="C145" s="18"/>
+      <c r="C145" s="4"/>
     </row>
     <row r="146" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C146" s="4"/>
+      <c r="C146" s="7"/>
     </row>
     <row r="147" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C147" s="4"/>
     </row>
     <row r="148" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C148" s="7"/>
+      <c r="C148" s="2"/>
     </row>
     <row r="149" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C149" s="4"/>
+      <c r="C149" s="2"/>
     </row>
     <row r="150" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C150" s="2"/>
+      <c r="C150" s="4"/>
     </row>
     <row r="151" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C151" s="2"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="17"/>
     </row>
     <row r="152" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C152" s="4"/>
+      <c r="B152" s="14"/>
+      <c r="C152" s="18"/>
     </row>
     <row r="153" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B153" s="5"/>
-      <c r="C153" s="17"/>
+      <c r="C153" s="4"/>
     </row>
     <row r="154" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B154" s="14"/>
-      <c r="C154" s="18"/>
+      <c r="C154" s="4"/>
     </row>
     <row r="155" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C155" s="4"/>
@@ -1189,114 +1167,114 @@
       <c r="C156" s="4"/>
     </row>
     <row r="157" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C157" s="4"/>
+      <c r="C157" s="2"/>
     </row>
     <row r="158" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C158" s="4"/>
+      <c r="C158" s="2"/>
     </row>
     <row r="159" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C159" s="2"/>
+      <c r="C159" s="4"/>
     </row>
     <row r="160" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C160" s="2"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="17"/>
     </row>
     <row r="161" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C161" s="4"/>
+      <c r="B161" s="14"/>
+      <c r="C161" s="18"/>
     </row>
     <row r="162" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B162" s="5"/>
-      <c r="C162" s="17"/>
+      <c r="C162" s="4"/>
     </row>
     <row r="163" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B163" s="14"/>
-      <c r="C163" s="18"/>
+      <c r="C163" s="4"/>
     </row>
     <row r="164" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C164" s="4"/>
+      <c r="C164" s="7"/>
     </row>
     <row r="165" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C165" s="4"/>
     </row>
     <row r="166" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C166" s="7"/>
+      <c r="C166" s="2"/>
     </row>
     <row r="167" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C167" s="4"/>
+      <c r="C167" s="2"/>
     </row>
     <row r="168" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C168" s="2"/>
+      <c r="C168" s="4"/>
     </row>
     <row r="169" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C169" s="2"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="17"/>
     </row>
     <row r="170" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C170" s="4"/>
+      <c r="B170" s="14"/>
+      <c r="C170" s="18"/>
     </row>
     <row r="171" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B171" s="5"/>
-      <c r="C171" s="17"/>
+      <c r="C171" s="4"/>
     </row>
     <row r="172" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B172" s="14"/>
-      <c r="C172" s="18"/>
+      <c r="C172" s="4"/>
     </row>
     <row r="173" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C173" s="4"/>
+      <c r="C173" s="7"/>
     </row>
     <row r="174" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C174" s="4"/>
     </row>
     <row r="175" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C175" s="7"/>
+      <c r="C175" s="2"/>
     </row>
     <row r="176" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C176" s="4"/>
+      <c r="C176" s="2"/>
     </row>
     <row r="177" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C177" s="2"/>
+      <c r="C177" s="4"/>
     </row>
     <row r="178" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C178" s="2"/>
+      <c r="B178" s="5"/>
+      <c r="C178" s="17"/>
     </row>
     <row r="179" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C179" s="4"/>
+      <c r="B179" s="14"/>
+      <c r="C179" s="18"/>
     </row>
     <row r="180" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B180" s="5"/>
-      <c r="C180" s="17"/>
+      <c r="C180" s="4"/>
     </row>
     <row r="181" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B181" s="14"/>
-      <c r="C181" s="18"/>
+      <c r="C181" s="4"/>
     </row>
     <row r="182" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C182" s="4"/>
+      <c r="C182" s="7"/>
     </row>
     <row r="183" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C183" s="4"/>
     </row>
     <row r="184" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C184" s="7"/>
+      <c r="C184" s="2"/>
     </row>
     <row r="185" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C185" s="4"/>
+      <c r="C185" s="2"/>
     </row>
     <row r="186" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C186" s="2"/>
+      <c r="C186" s="4"/>
     </row>
     <row r="187" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C187" s="2"/>
+      <c r="B187" s="5"/>
+      <c r="C187" s="17"/>
     </row>
     <row r="188" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C188" s="4"/>
+      <c r="B188" s="14"/>
+      <c r="C188" s="18"/>
     </row>
     <row r="189" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B189" s="5"/>
-      <c r="C189" s="17"/>
+      <c r="C189" s="4"/>
     </row>
     <row r="190" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B190" s="14"/>
-      <c r="C190" s="18"/>
+      <c r="C190" s="4"/>
     </row>
     <row r="191" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C191" s="4"/>
@@ -3617,12 +3595,8 @@
     <row r="963" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C963" s="4"/>
     </row>
-    <row r="964" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C964" s="4"/>
-    </row>
-    <row r="965" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C965" s="4"/>
-    </row>
+    <row r="964" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="966" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="967" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="968" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/specific_variables/snow-height.xlsx
+++ b/specific_variables/snow-height.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/specific_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D62678-77BE-7B44-8A77-7DD053C4D69D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995F23A4-49D1-9345-9E46-894F148D2388}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37380" yWindow="-720" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8100" yWindow="500" windowWidth="20480" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables-specific" sheetId="2" r:id="rId1"/>
@@ -79,21 +79,22 @@
     <t>Distance from sensor to snow surface</t>
   </si>
   <si>
-    <t>qc_flag_snow_height</t>
-  </si>
-  <si>
     <t>Data Quality flag: Snow Height</t>
-  </si>
-  <si>
-    <t>0, 1, 2</t>
   </si>
   <si>
     <t>float64</t>
   </si>
   <si>
-    <t>bad_data
+    <t>0b,1b, 2b, 3b</t>
+  </si>
+  <si>
+    <t>no_data
 good_data 
-suspect_data_possible_obstruction</t>
+bad_data_distance_outside_sensor_operational_range
+bad_data_not_temperature_corrected</t>
+  </si>
+  <si>
+    <t>qc_flag_distance_to_surface</t>
   </si>
 </sst>
 </file>
@@ -157,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -214,8 +215,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,7 +545,7 @@
   <dimension ref="A1:C979"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="A8:C9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -570,7 +578,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -626,7 +634,7 @@
     </row>
     <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="9"/>
@@ -664,25 +672,25 @@
         <v>7</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>23</v>
+      <c r="C17" s="25" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">

--- a/specific_variables/snow-height.xlsx
+++ b/specific_variables/snow-height.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/specific_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995F23A4-49D1-9345-9E46-894F148D2388}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94BACAD-4475-7C4D-9779-5F186A8E0379}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="500" windowWidth="20480" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45560" yWindow="-2300" windowWidth="20480" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables-specific" sheetId="2" r:id="rId1"/>
@@ -85,16 +85,13 @@
     <t>float64</t>
   </si>
   <si>
-    <t>0b,1b, 2b, 3b</t>
+    <t>qc_flag_distance_to_surface</t>
   </si>
   <si>
-    <t>no_data
-good_data 
-bad_data_distance_outside_sensor_operational_range
-bad_data_not_temperature_corrected</t>
+    <t>0, 1, 2, 3</t>
   </si>
   <si>
-    <t>qc_flag_distance_to_surface</t>
+    <t>no_data good_data  bad_data_distance_outside_sensor_operational_range bad_data_not_temperature_corrected</t>
   </si>
 </sst>
 </file>
@@ -545,7 +542,7 @@
   <dimension ref="A1:C979"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -634,7 +631,7 @@
     </row>
     <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="9"/>
@@ -681,7 +678,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -690,7 +687,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">

--- a/specific_variables/snow-height.xlsx
+++ b/specific_variables/snow-height.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/specific_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94BACAD-4475-7C4D-9779-5F186A8E0379}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517F448D-1C07-594A-AB21-9F784C2D2BDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45560" yWindow="-2300" windowWidth="20480" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,10 +88,10 @@
     <t>qc_flag_distance_to_surface</t>
   </si>
   <si>
-    <t>0, 1, 2, 3</t>
+    <t>0, 1, 2, 3, 4</t>
   </si>
   <si>
-    <t>no_data good_data  bad_data_distance_outside_sensor_operational_range bad_data_not_temperature_corrected</t>
+    <t>no_data good_data  bad_data_distance_outside_sensor_operational_range bad_data_not_temperature_corrected No_data_available_logged_last_valid_record_see_comment</t>
   </si>
 </sst>
 </file>
